--- a/biology/Zoologie/Grandilithus_limushan/Grandilithus_limushan.xlsx
+++ b/biology/Zoologie/Grandilithus_limushan/Grandilithus_limushan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus limushan est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus limushan est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Hainan en Chine[1]. Elle se rencontre dans le xian de Qiongzhong sur le mont Limu[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Hainan en Chine. Elle se rencontre dans le xian de Qiongzhong sur le mont Limu.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 3,64 mm[3].
-Les mâles mesurent de 2,97 à 3,49 mm et les femelles de 3,60 à 4,06 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 3,64 mm.
+Les mâles mesurent de 2,97 à 3,49 mm et les femelles de 3,60 à 4,06 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia limushan par Fu, Zhang et Zhu en 2010. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia limushan par Fu, Zhang et Zhu en 2010. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Limushan ou mont Limu.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fu, Zhang &amp; Zhu, 2010 : « Three new species of the genus Otacilia (Araneae: Corinnidae) from Hainan Island, China. » Journal of Natural History, vol. 44, no 11/12, p. 639-650.</t>
         </is>
